--- a/SuppXLS/Scen_Input_Share_IND.xlsx
+++ b/SuppXLS/Scen_Input_Share_IND.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\INDIND\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2A253C7C-5579-4F0A-ABBA-565185051CD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68426E8C-47D5-4762-9F7D-5536D8E70732}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{BA782D15-AA3B-46EF-B116-A71502E0EFA2}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="26">
   <si>
     <t>~TFM_MIG</t>
   </si>
@@ -91,9 +91,6 @@
   </si>
   <si>
     <t>CommName</t>
-  </si>
-  <si>
-    <t>Year</t>
   </si>
   <si>
     <t>Kiln</t>
@@ -209,7 +206,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
@@ -714,7 +711,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -742,7 +739,7 @@
         <v>2</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>9</v>
@@ -753,13 +750,13 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
         <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -771,21 +768,21 @@
         <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4" s="3">
         <f>E3</f>
@@ -795,18 +792,18 @@
         <v>1</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>7</v>
@@ -819,7 +816,7 @@
         <v>1</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/SuppXLS/Scen_Input_Share_IND.xlsx
+++ b/SuppXLS/Scen_Input_Share_IND.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\INDIND\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68426E8C-47D5-4762-9F7D-5536D8E70732}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F71D51B7-DB5F-4672-8953-C9BE72FA87AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{BA782D15-AA3B-46EF-B116-A71502E0EFA2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BA782D15-AA3B-46EF-B116-A71502E0EFA2}"/>
   </bookViews>
   <sheets>
     <sheet name="TFM_MIG" sheetId="1" r:id="rId1"/>
@@ -102,9 +102,6 @@
     <t>Boiler</t>
   </si>
   <si>
-    <t>LO</t>
-  </si>
-  <si>
     <t>MANHEAT</t>
   </si>
   <si>
@@ -115,6 +112,9 @@
   </si>
   <si>
     <t>ElC covers 100%</t>
+  </si>
+  <si>
+    <t>FX</t>
   </si>
 </sst>
 </file>
@@ -546,8 +546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F571446-C2EE-4B5C-98F9-BD09C2ACB7D9}">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -710,8 +710,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48B6C728-C0D5-452A-80EE-E6B547EE8A86}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -768,7 +768,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -782,7 +782,7 @@
         <v>19</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E4" s="3">
         <f>E3</f>
@@ -792,12 +792,12 @@
         <v>1</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>14</v>
@@ -806,7 +806,7 @@
         <v>19</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="E5" s="4">
         <f>E4</f>
@@ -816,7 +816,7 @@
         <v>1</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
